--- a/Benchmark_System/MAX SENSITIVITY 1.4/Fourth Order System0.2_ms14/Fourth Order System0.2_ms14.xlsx
+++ b/Benchmark_System/MAX SENSITIVITY 1.4/Fourth Order System0.2_ms14/Fourth Order System0.2_ms14.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Github\PID_PIDA_Controller\Benchmark_System\MAX SENSITIVITY 1.4\Fourth Order System0.2_ms14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBFEC8B-DAAB-47BC-86AE-3EC5FF6E6CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>parametri</t>
   </si>
@@ -87,8 +94,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -102,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,134 +120,444 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.10069246293948622</v>
+        <v>0.10109578804696412</v>
       </c>
       <c r="C2">
-        <v>0.19925649227589393</v>
+        <v>2.1374021739348059</v>
       </c>
       <c r="D2">
-        <v>0.20792512726294152</v>
-      </c>
-      <c r="E2">
-        <v>0.046857663798940442</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+        <v>1.5929736852202085</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.0838485521172914E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.469981589604442</v>
+        <v>13.175118108275534</v>
       </c>
       <c r="C3">
-        <v>101.560398591387</v>
+        <v>6.7601334600593184</v>
       </c>
       <c r="D3">
-        <v>29.0997995109139</v>
-      </c>
-      <c r="E3">
-        <v>29.131527825605154</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+        <v>4.4585431936982811</v>
+      </c>
+      <c r="E3" s="3">
+        <v>64.238932755179121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.2152787251282979</v>
+        <v>1.218692506687403</v>
       </c>
       <c r="C4">
-        <v>0.17873183297102099</v>
+        <v>1.861924929648904</v>
       </c>
       <c r="D4">
-        <v>6.04912452680251</v>
-      </c>
-      <c r="E4">
-        <v>1.3396083441121001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+        <v>7.1021397489810179</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.2925635821932677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.188138612520061</v>
+        <v>0.195780770592273</v>
       </c>
       <c r="C5">
-        <v>0.077015531050712002</v>
+        <v>0.39370388968740699</v>
       </c>
       <c r="D5">
-        <v>0.16619495714040899</v>
-      </c>
-      <c r="E5">
-        <v>0.29189719085638499</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+        <v>0.40893142255738102</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.24129851120039555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0.025851369157554999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2">
+        <v>1.5574343636600292E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -249,12 +569,12 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -266,188 +586,189 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102.7294742576705</v>
+        <v>103.7209327665792</v>
       </c>
       <c r="C9">
-        <v>37.914855379493197</v>
+        <v>16.222375069598719</v>
       </c>
       <c r="D9">
-        <v>25.5673162636526</v>
-      </c>
-      <c r="E9">
-        <v>101.6576260314649</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+        <v>36.129690930396485</v>
+      </c>
+      <c r="E9" s="3">
+        <v>111.58996146053157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>77.37843986667734</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="3">
+        <v>88.397527344577796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.3999966453466786</v>
+        <v>1.3999995754524437</v>
       </c>
       <c r="C11">
-        <v>1.3999556206374486</v>
+        <v>1.1590725796863817</v>
       </c>
       <c r="D11">
-        <v>1.3999550695564393</v>
-      </c>
-      <c r="E11">
-        <v>1.3211876421343995</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+        <v>1.1165562229787664</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.3999899061207535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.11326633120053087</v>
+        <v>0.11301156132123021</v>
       </c>
       <c r="C12">
-        <v>0.23614724462734213</v>
+        <v>3.60140564251454</v>
       </c>
       <c r="D12">
-        <v>0.35786448936387183</v>
-      </c>
-      <c r="E12">
-        <v>0.022842427745154978</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+        <v>2.5637228096197058</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.5122524846155751E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.30239910895573668</v>
+        <v>0.48068989011372149</v>
       </c>
       <c r="C13">
-        <v>0.70652099985492423</v>
+        <v>6.4460571862463647</v>
       </c>
       <c r="D13">
-        <v>0.70919466226707584</v>
-      </c>
-      <c r="E13">
-        <v>0.45423465977862471</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+        <v>15.310819017254429</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.19386120511433746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.0212608272448556</v>
+        <v>4.2640505337536716</v>
       </c>
       <c r="C14">
-        <v>4.7951427508317934</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+        <v>3.6823269017976612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.0502126082724486</v>
+        <v>1.0426405053375365</v>
       </c>
       <c r="C16">
-        <v>1.0479514275083179</v>
+        <v>0.99912880337904664</v>
       </c>
       <c r="D16">
-        <v>0.99967855374276571</v>
+        <v>0.99942353561422681</v>
       </c>
       <c r="E16">
-        <v>0.99844557025614467</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+        <v>1.0368232690179766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.2361234792098888</v>
+        <v>0.23033952318255399</v>
       </c>
       <c r="C17">
-        <v>0.46182032933894157</v>
+        <v>10.802845232701818</v>
       </c>
       <c r="D17">
-        <v>1.4360758961179856</v>
+        <v>44.025881970460809</v>
       </c>
       <c r="E17">
-        <v>0.88979564005968648</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+        <v>2.9604821498780413E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.5990562093617164</v>
+        <v>9.4641072432786117</v>
       </c>
       <c r="C18">
-        <v>3.5935827159001943</v>
+        <v>38.295282709793206</v>
       </c>
       <c r="D18">
-        <v>3.8302963713192528</v>
+        <v>14.402026366559678</v>
       </c>
       <c r="E18">
-        <v>20.256661998342011</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+        <v>28.041576530166026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>62.371925411014317</v>
+        <v>62.928504501873149</v>
       </c>
       <c r="C19">
-        <v>63.928928491885635</v>
+        <v>76.944318229849955</v>
       </c>
       <c r="D19">
-        <v>79.254117041990469</v>
+        <v>90.831736111463073</v>
       </c>
       <c r="E19">
-        <v>70.710505430734798</v>
+        <v>60.213184619523339</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>